--- a/pred_ohlcv/54_21/2019-11-24 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 STRAT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-28187.8394</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-27983.684</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-28315.884</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-27978.384</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-27449.6463</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-27448.1463</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-27455.1463</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-27450.1463</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-27450.1463</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-27450.1463</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-27420.1463</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-27535.6608</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-28966.1463</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28142.4847</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-26722.2923</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-24991.9782</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-25560.9782</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-24888.9782</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-24181.0015</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-20143.3743</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-18405.3743</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-18405.3743</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-18405.3743</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1202.586599999995</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2817.675999999995</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2817.675999999995</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2756.675999999995</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2756.675999999995</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2756.675999999995</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2756.675999999995</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3092.675999999995</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2098.675999999995</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2098.675999999995</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2098.675999999995</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1964.595099999995</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1959.595099999995</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1959.595099999995</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1959.595099999995</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-24 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 STRAT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-27978.384</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-27449.6463</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-27448.1463</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-27461.1463</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-27455.1463</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-27450.1463</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-27450.1463</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-26510.2923</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-24877.2923</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-24962.2923</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-24991.9782</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-25560.9782</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-24888.9782</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-24181.0015</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-20143.3743</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-18405.3743</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-18405.3743</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-18405.3743</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2639.435800000005</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4890.355300000005</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-9761.582100000005</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9482.224100000005</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-9435.070500000005</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-9618.470500000005</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-9266.790100000006</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-9266.790100000006</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-9497.790200000005</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1310.893000000005</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1435.133300000005</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1435.133300000005</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-804.133300000005</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-973.133300000005</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1022.133300000005</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-444.042200000005</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-444.042200000005</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-444.042200000005</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1202.586599999995</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1202.586599999995</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1202.586599999995</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2817.675999999995</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2817.675999999995</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2756.675999999995</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2756.675999999995</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2756.675999999995</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2756.675999999995</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3092.675999999995</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2098.675999999995</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2098.675999999995</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2098.675999999995</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1964.595099999995</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1959.595099999995</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1959.595099999995</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1959.595099999995</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
